--- a/table_02.xlsx
+++ b/table_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuka\CODE\streamlit_app\project_02_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243D7EDC-7B5D-4421-BD92-03B3145ADB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798C7BA-7763-4FA1-B1A8-C2BFA2AC034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{6E3F8582-D643-4BB5-BB76-706D071AAF9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E3F8582-D643-4BB5-BB76-706D071AAF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="task_schedule" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E32412-A41E-44FB-B754-43D24BE8FE91}">
   <dimension ref="A1:BG225"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="14" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A102" sqref="A102"/>
-      <selection pane="topRight" activeCell="AN203" sqref="AN203"/>
+      <selection pane="topRight" activeCell="CO60" sqref="CO60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C37AD83-A77D-459A-BB09-B954BF43FDE1}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4339,7 +4339,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/table_02.xlsx
+++ b/table_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuka\CODE\streamlit_app\project_02_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B59C32-CF85-4D52-BAA0-A8740B7B3E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0D9E4-A73E-4D41-BF1F-C48D32C2DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E3F8582-D643-4BB5-BB76-706D071AAF9C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="47">
   <si>
     <t>採取</t>
     <rPh sb="0" eb="2">
@@ -64,13 +64,6 @@
     <t>撮影</t>
     <rPh sb="0" eb="2">
       <t>サツエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -205,12 +198,19 @@
     <t>hirano</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>DNA抽出</t>
+  </si>
+  <si>
+    <t>DNA抽出</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +232,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,11 +284,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -639,7 +678,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A102" sqref="A102"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -649,88 +688,88 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
@@ -1343,7 +1382,7 @@
         <v>45895</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1401,7 +1440,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1446,7 +1485,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1507,7 +1546,7 @@
         <v>45906</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1552,7 +1591,7 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1614,7 +1653,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1662,7 +1701,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1735,7 +1774,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="I45" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1789,7 +1828,7 @@
       <c r="G48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -1863,7 +1902,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -1920,7 +1959,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -1981,7 +2020,7 @@
         <v>45934</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2026,7 +2065,7 @@
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -2088,7 +2127,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -2136,7 +2175,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -2209,7 +2248,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="Q73" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -2263,7 +2302,7 @@
       <c r="O76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -2337,7 +2376,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
@@ -2394,7 +2433,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -2467,7 +2506,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="U87" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
@@ -2521,7 +2560,7 @@
       <c r="O90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
@@ -2595,7 +2634,7 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
@@ -2652,7 +2691,7 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
@@ -2737,7 +2776,7 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="Y101" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
@@ -2800,7 +2839,7 @@
       <c r="W104" s="4"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
@@ -2886,7 +2925,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
@@ -2952,7 +2991,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
       <c r="AB111" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
@@ -3013,7 +3052,7 @@
         <v>45990</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
@@ -3058,7 +3097,7 @@
       </c>
       <c r="AC118" s="4"/>
       <c r="AD118" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
@@ -3120,7 +3159,7 @@
       <c r="AC122" s="4"/>
       <c r="AD122" s="4"/>
       <c r="AE122" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
@@ -3168,7 +3207,7 @@
       <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
       <c r="AF125" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
@@ -3240,7 +3279,7 @@
       <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
       <c r="AG129" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
@@ -3291,7 +3330,7 @@
       <c r="AE132" s="4"/>
       <c r="AG132" s="4"/>
       <c r="AH132" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
@@ -3372,7 +3411,7 @@
       <c r="AG136" s="4"/>
       <c r="AH136" s="4"/>
       <c r="AI136" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AJ136" s="1"/>
       <c r="AK136" s="1"/>
@@ -3432,7 +3471,7 @@
       <c r="AH139" s="4"/>
       <c r="AI139" s="4"/>
       <c r="AJ139" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AK139" s="1"/>
       <c r="AL139" s="1"/>
@@ -3498,7 +3537,7 @@
       <c r="AD143" s="4"/>
       <c r="AE143" s="4"/>
       <c r="AK143" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
@@ -3549,7 +3588,7 @@
       <c r="AE146" s="4"/>
       <c r="AK146" s="4"/>
       <c r="AL146" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AM146" s="1"/>
       <c r="AN146" s="1"/>
@@ -3626,7 +3665,7 @@
       <c r="AE150" s="4"/>
       <c r="AK150" s="4"/>
       <c r="AM150" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AN150" s="1"/>
       <c r="AO150" s="1"/>
@@ -3683,7 +3722,7 @@
       <c r="AK153" s="4"/>
       <c r="AM153" s="4"/>
       <c r="AN153" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AO153" s="1"/>
       <c r="AP153" s="1"/>
@@ -3745,7 +3784,7 @@
       <c r="AM157" s="4"/>
       <c r="AN157" s="4"/>
       <c r="AO157" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
@@ -3793,7 +3832,7 @@
       <c r="AN160" s="4"/>
       <c r="AO160" s="4"/>
       <c r="AP160" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AQ160" s="1"/>
       <c r="AR160" s="1"/>
@@ -3866,7 +3905,7 @@
       <c r="AN164" s="4"/>
       <c r="AO164" s="4"/>
       <c r="AQ164" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AR164" s="1"/>
       <c r="AS164" s="1"/>
@@ -3920,7 +3959,7 @@
       <c r="AO167" s="4"/>
       <c r="AQ167" s="4"/>
       <c r="AR167" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AS167" s="1"/>
       <c r="AT167" s="1"/>
@@ -3994,7 +4033,7 @@
       <c r="AQ171" s="4"/>
       <c r="AR171" s="4"/>
       <c r="AS171" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AT171" s="1"/>
       <c r="AU171" s="1"/>
@@ -4051,7 +4090,7 @@
       <c r="AR174" s="4"/>
       <c r="AS174" s="4"/>
       <c r="AT174" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AU174" s="1"/>
       <c r="AV174" s="1"/>
@@ -4124,7 +4163,7 @@
       <c r="AN178" s="4"/>
       <c r="AO178" s="4"/>
       <c r="AU178" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AV178" s="1"/>
       <c r="AW178" s="1"/>
@@ -4178,7 +4217,7 @@
       <c r="AO181" s="4"/>
       <c r="AU181" s="4"/>
       <c r="AV181" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
@@ -4252,7 +4291,7 @@
       <c r="AU185" s="4"/>
       <c r="AV185" s="4"/>
       <c r="AW185" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AX185" s="1"/>
       <c r="AY185" s="1"/>
@@ -4309,7 +4348,7 @@
       <c r="AV188" s="4"/>
       <c r="AW188" s="4"/>
       <c r="AX188" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
@@ -4394,7 +4433,7 @@
       <c r="AV192" s="4"/>
       <c r="AW192" s="4"/>
       <c r="AY192" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="AZ192" s="1"/>
       <c r="BA192" s="1"/>
@@ -4807,7 +4846,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:A193">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4820,7 +4859,7 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4831,7 +4870,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4846,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -4876,42 +4915,45 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4924,3206 +4966,3409 @@
   <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="6" width="8.625" style="4"/>
+    <col min="1" max="2" width="12.125" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.625" style="6"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>45877</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>45878</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>45879</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>45880</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>45881</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>45882</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>45883</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>45884</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>45885</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>45886</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>45887</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>45888</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>45889</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>45890</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>45891</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>45892</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>45893</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>45894</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>45895</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>45896</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>45897</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>45898</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <v>45899</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <v>45900</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>45902</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="8">
+        <v>45903</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="8">
+        <v>45904</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
+        <v>45905</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="8">
+        <v>45906</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="8">
+        <v>45907</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="8">
+        <v>45908</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="8">
+        <v>45909</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <v>45910</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <v>45911</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <v>45912</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="8">
+        <v>45913</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="8">
+        <v>45914</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="8">
+        <v>45915</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
+        <v>45916</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="8">
+        <v>45917</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>45895</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="8">
+        <v>45918</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="8">
+        <v>45919</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="8">
+        <v>45920</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="8">
+        <v>45921</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="8">
+        <v>45922</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="8">
+        <v>45923</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>45896</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="8">
+        <v>45924</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="8">
+        <v>45925</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="8">
+        <v>45926</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="8">
+        <v>45927</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="8">
+        <v>45928</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="8">
+        <v>45929</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="8">
+        <v>45930</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="8">
+        <v>45932</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="8">
+        <v>45933</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="8">
+        <v>45934</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="8">
+        <v>45935</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="8">
+        <v>45936</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="8">
+        <v>45937</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="8">
+        <v>45938</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="8">
+        <v>45939</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="8">
+        <v>45940</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="8">
+        <v>45941</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="8">
+        <v>45942</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="8">
+        <v>45943</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="8">
+        <v>45944</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="8">
+        <v>45945</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="8">
+        <v>45946</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="8">
+        <v>45947</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="8">
+        <v>45948</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="8">
+        <v>45949</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="8">
+        <v>45950</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="8">
+        <v>45951</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="8">
+        <v>45952</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="8">
+        <v>45953</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="8">
+        <v>45954</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="8">
+        <v>45955</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="8">
+        <v>45956</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="8">
+        <v>45957</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="8">
+        <v>45958</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="8">
+        <v>45959</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="8">
+        <v>45960</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="8">
+        <v>45961</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="8">
+        <v>45963</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="8">
+        <v>45964</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="8">
+        <v>45965</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="8">
+        <v>45966</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="8">
+        <v>45967</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="8">
+        <v>45968</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="8">
+        <v>45969</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>45897</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>45898</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>45899</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="8">
+        <v>45970</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="8">
+        <v>45971</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="8">
+        <v>45972</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="8">
+        <v>45973</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="8">
+        <v>45974</v>
+      </c>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="8">
+        <v>45975</v>
+      </c>
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="8">
+        <v>45976</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="8">
+        <v>45977</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="8">
+        <v>45978</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="8">
+        <v>45979</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="8">
+        <v>45980</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="8">
+        <v>45981</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="8">
+        <v>45982</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="8">
+        <v>45983</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="8">
+        <v>45984</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="8">
+        <v>45985</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="8">
+        <v>45986</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="8">
+        <v>45987</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="8">
+        <v>45988</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="8">
+        <v>45989</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="8">
+        <v>45990</v>
+      </c>
+      <c r="B115" s="8"/>
+      <c r="C115" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="8">
+        <v>45991</v>
+      </c>
+      <c r="B116" s="8"/>
+      <c r="C116" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="8">
+        <v>45993</v>
+      </c>
+      <c r="B118" s="8"/>
+      <c r="C118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="8">
+        <v>45994</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="8">
+        <v>45995</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="8">
+        <v>45996</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="8">
+        <v>45997</v>
+      </c>
+      <c r="B122" s="8"/>
+      <c r="C122" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="8">
+        <v>45998</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="8">
+        <v>45999</v>
+      </c>
+      <c r="B124" s="8"/>
+      <c r="C124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="8">
+        <v>46000</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="8">
+        <v>46001</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="C126" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="8">
+        <v>46002</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="8">
+        <v>46003</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="8">
+        <v>46004</v>
+      </c>
+      <c r="B129" s="8"/>
+      <c r="C129" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="8">
+        <v>46005</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="8">
+        <v>46006</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="8">
+        <v>46007</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="8">
+        <v>46008</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="8">
+        <v>46009</v>
+      </c>
+      <c r="B134" s="8"/>
+      <c r="C134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="8">
+        <v>46010</v>
+      </c>
+      <c r="B135" s="8"/>
+      <c r="C135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="8">
+        <v>46011</v>
+      </c>
+      <c r="B136" s="8"/>
+      <c r="C136" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="8">
+        <v>46012</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="8">
+        <v>46013</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="8">
+        <v>46014</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="8">
+        <v>46015</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="8">
+        <v>46016</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="8">
+        <v>46017</v>
+      </c>
+      <c r="B142" s="8"/>
+      <c r="C142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="8">
+        <v>46018</v>
+      </c>
+      <c r="B143" s="8"/>
+      <c r="C143" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="4" t="s">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="8">
+        <v>46019</v>
+      </c>
+      <c r="B144" s="8"/>
+      <c r="C144" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="8">
+        <v>46020</v>
+      </c>
+      <c r="B145" s="8"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="8">
+        <v>46021</v>
+      </c>
+      <c r="B146" s="8"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="8">
+        <v>46022</v>
+      </c>
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="8">
+        <v>46023</v>
+      </c>
+      <c r="B148" s="8"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="8">
+        <v>46024</v>
+      </c>
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="8">
+        <v>46025</v>
+      </c>
+      <c r="B150" s="8"/>
+      <c r="C150" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="8">
+        <v>46026</v>
+      </c>
+      <c r="B151" s="8"/>
+      <c r="C151" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="8">
+        <v>46027</v>
+      </c>
+      <c r="B152" s="8"/>
+      <c r="C152" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="8">
+        <v>46028</v>
+      </c>
+      <c r="B153" s="8"/>
+      <c r="C153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="8">
+        <v>46029</v>
+      </c>
+      <c r="B154" s="8"/>
+      <c r="C154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="8">
+        <v>46030</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="8">
+        <v>46031</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="8">
+        <v>46032</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="8">
+        <v>46033</v>
+      </c>
+      <c r="B158" s="8"/>
+      <c r="C158" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="8">
+        <v>46034</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="8">
+        <v>46035</v>
+      </c>
+      <c r="B160" s="8"/>
+      <c r="C160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A161" s="8">
+        <v>46036</v>
+      </c>
+      <c r="B161" s="8"/>
+      <c r="C161" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A162" s="8">
+        <v>46037</v>
+      </c>
+      <c r="B162" s="8"/>
+      <c r="C162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A163" s="8">
+        <v>46038</v>
+      </c>
+      <c r="B163" s="8"/>
+      <c r="C163" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A164" s="8">
+        <v>46039</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A165" s="8">
+        <v>46040</v>
+      </c>
+      <c r="B165" s="8"/>
+      <c r="C165" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A166" s="8">
+        <v>46041</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" s="8">
+        <v>46042</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" s="8">
+        <v>46043</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" s="8">
+        <v>46044</v>
+      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="8">
+        <v>46045</v>
+      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="8">
+        <v>46046</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="8">
+        <v>46047</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" s="8">
+        <v>46048</v>
+      </c>
+      <c r="B173" s="8"/>
+      <c r="C173" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="8">
+        <v>46049</v>
+      </c>
+      <c r="B174" s="8"/>
+      <c r="C174" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="8">
+        <v>46050</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="8">
+        <v>46051</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A177" s="8">
+        <v>46052</v>
+      </c>
+      <c r="B177" s="8"/>
+      <c r="C177" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A178" s="8">
+        <v>46053</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" s="8">
+        <v>46054</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" s="8">
+        <v>46055</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A181" s="8">
+        <v>46056</v>
+      </c>
+      <c r="B181" s="8"/>
+      <c r="C181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A182" s="8">
+        <v>46057</v>
+      </c>
+      <c r="B182" s="8"/>
+      <c r="C182" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A183" s="8">
+        <v>46058</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A184" s="8">
+        <v>46059</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A185" s="8">
+        <v>46060</v>
+      </c>
+      <c r="B185" s="8"/>
+      <c r="C185" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A186" s="8">
+        <v>46061</v>
+      </c>
+      <c r="B186" s="8"/>
+      <c r="C186" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A187" s="8">
+        <v>46062</v>
+      </c>
+      <c r="B187" s="8"/>
+      <c r="C187" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A188" s="8">
+        <v>46063</v>
+      </c>
+      <c r="B188" s="8"/>
+      <c r="C188" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A189" s="8">
+        <v>46064</v>
+      </c>
+      <c r="B189" s="8"/>
+      <c r="C189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A190" s="8">
+        <v>46065</v>
+      </c>
+      <c r="B190" s="8"/>
+      <c r="C190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A191" s="8">
+        <v>46066</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A192" s="8">
+        <v>46067</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>45900</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>45902</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>45903</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>45904</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>45905</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>45906</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <v>45907</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
-        <v>45908</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
-        <v>45909</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
-        <v>45910</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>45911</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>45912</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>45913</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>45914</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>45915</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
-        <v>45916</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
-        <v>45917</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
-        <v>45918</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
-        <v>45919</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
-        <v>45920</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
-        <v>45921</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
-        <v>45922</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
-        <v>45923</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
-        <v>45924</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
-        <v>45925</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
-        <v>45926</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
-        <v>45927</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
-        <v>45928</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
-        <v>45929</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
-        <v>45930</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
-        <v>45932</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
-        <v>45933</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
-        <v>45934</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
-        <v>45935</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
-        <v>45936</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
-        <v>45937</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
-        <v>45938</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
-        <v>45939</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
-        <v>45940</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
-        <v>45941</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
-        <v>45942</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
-        <v>45943</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
-        <v>45944</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
-        <v>45945</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
-        <v>45946</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
-        <v>45947</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
-        <v>45948</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
-        <v>45949</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
-        <v>45950</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
-        <v>45951</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="2">
-        <v>45952</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="2">
-        <v>45953</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="2">
-        <v>45954</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
-        <v>45955</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
-        <v>45956</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="2">
-        <v>45957</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="2">
-        <v>45958</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="2">
-        <v>45959</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="2">
-        <v>45960</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="2">
-        <v>45961</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="2">
-        <v>45963</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="2">
-        <v>45964</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="2">
-        <v>45965</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="2">
-        <v>45966</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="2">
-        <v>45967</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="2">
-        <v>45968</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="2">
-        <v>45969</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="2">
-        <v>45970</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="2">
-        <v>45972</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="2">
-        <v>45973</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="2">
-        <v>45974</v>
-      </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="2">
-        <v>45975</v>
-      </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="2">
-        <v>45977</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="2">
-        <v>45979</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="2">
-        <v>45980</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="2">
-        <v>45981</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="2">
-        <v>45982</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="2">
-        <v>45983</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="2">
-        <v>45984</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="2">
-        <v>45985</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="2">
-        <v>45986</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="2">
-        <v>45987</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="2">
-        <v>45988</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="2">
-        <v>45989</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="2">
-        <v>45990</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="2">
-        <v>45991</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="2">
-        <v>45993</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="2">
-        <v>45994</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="2">
-        <v>45995</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="2">
-        <v>45996</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="2">
-        <v>45997</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="2">
-        <v>45998</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="2">
-        <v>45999</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="2">
-        <v>46000</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="2">
-        <v>46002</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="2">
-        <v>46003</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="2">
-        <v>46004</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="2">
-        <v>46005</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="2">
-        <v>46006</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="2">
-        <v>46007</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="2">
-        <v>46009</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="2">
-        <v>46010</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="2">
-        <v>46011</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="2">
-        <v>46012</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="2">
-        <v>46013</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="2">
-        <v>46014</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="2">
-        <v>46015</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="2">
-        <v>46016</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="2">
-        <v>46017</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="2">
-        <v>46018</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="2">
-        <v>46019</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="2">
-        <v>46020</v>
-      </c>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="2">
-        <v>46021</v>
-      </c>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="2">
-        <v>46022</v>
-      </c>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="2">
-        <v>46023</v>
-      </c>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="2">
-        <v>46024</v>
-      </c>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="2">
-        <v>46025</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="2">
-        <v>46026</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="2">
-        <v>46027</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A153" s="2">
-        <v>46028</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="2">
-        <v>46029</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="2">
-        <v>46030</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="2">
-        <v>46031</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="2">
-        <v>46032</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="2">
-        <v>46033</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="2">
-        <v>46034</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="2">
-        <v>46035</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A161" s="2">
-        <v>46036</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A162" s="2">
-        <v>46037</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A163" s="2">
-        <v>46038</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A164" s="2">
-        <v>46039</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A165" s="2">
-        <v>46040</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A166" s="2">
-        <v>46041</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A167" s="2">
-        <v>46042</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A168" s="2">
-        <v>46043</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A169" s="2">
-        <v>46044</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A170" s="2">
-        <v>46045</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A171" s="2">
-        <v>46046</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A172" s="2">
-        <v>46047</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A173" s="2">
-        <v>46048</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A174" s="2">
-        <v>46049</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A175" s="2">
-        <v>46050</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A176" s="2">
-        <v>46051</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A177" s="2">
-        <v>46052</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A178" s="2">
-        <v>46053</v>
-      </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A179" s="2">
-        <v>46054</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A180" s="2">
-        <v>46055</v>
-      </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A181" s="2">
-        <v>46056</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A182" s="2">
-        <v>46057</v>
-      </c>
-      <c r="B182" s="2"/>
-      <c r="C182" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A183" s="2">
-        <v>46058</v>
-      </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A184" s="2">
-        <v>46059</v>
-      </c>
-      <c r="B184" s="2"/>
-      <c r="C184" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A185" s="2">
-        <v>46060</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A186" s="2">
-        <v>46061</v>
-      </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A187" s="2">
-        <v>46062</v>
-      </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A188" s="2">
-        <v>46063</v>
-      </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A189" s="2">
-        <v>46064</v>
-      </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A190" s="2">
-        <v>46065</v>
-      </c>
-      <c r="B190" s="2"/>
-      <c r="C190" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A191" s="2">
-        <v>46066</v>
-      </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A192" s="2">
-        <v>46067</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A193" s="2">
+      <c r="A193" s="8">
         <v>46068</v>
       </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>42</v>
+      <c r="B193" s="8"/>
+      <c r="C193" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:B193">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>COUNTIF(#REF!,#REF!)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>COUNTIF(#REF!,#REF!)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E18">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF(#REF!,#REF!)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>

--- a/table_02.xlsx
+++ b/table_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuka\CODE\streamlit_app\project_02_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE0D9E4-A73E-4D41-BF1F-C48D32C2DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818801E8-A637-4DF8-9187-FE2EEB8153F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E3F8582-D643-4BB5-BB76-706D071AAF9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{6E3F8582-D643-4BB5-BB76-706D071AAF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="task_schedule" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="47">
   <si>
     <t>採取</t>
     <rPh sb="0" eb="2">
@@ -300,14 +300,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -675,10 +668,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E32412-A41E-44FB-B754-43D24BE8FE91}">
   <dimension ref="A1:BG242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="97" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A102" sqref="A102"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4846,7 +4839,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:A193">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4859,7 +4852,7 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4917,9 +4910,6 @@
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -4953,7 +4943,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4965,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF57FDC-DCFB-4594-82F0-1BE7D1A0EF96}">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="73" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="73" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -8354,21 +8344,16 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:B193">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E18">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>COUNTIF(#REF!,#REF!)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F18">
+  <conditionalFormatting sqref="E2:F18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(#REF!,#REF!)=1</formula>
     </cfRule>
